--- a/Reports/RSO/Prokopevsk/Hot_water_MKD/Hot_water_MKD.xlsx
+++ b/Reports/RSO/Prokopevsk/Hot_water_MKD/Hot_water_MKD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>t1</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>"=C$R+D$R"</t>
+  </si>
+  <si>
+    <t>$SUM_t1['value45_D1']</t>
   </si>
 </sst>
 </file>
@@ -297,41 +300,41 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,7 +638,7 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,14 +685,14 @@
       <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="18.75">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -835,46 +838,46 @@
       <c r="Y5" s="11"/>
     </row>
     <row r="6" spans="1:25" ht="15.75">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>0</v>
       </c>
-      <c r="I6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="24">
         <v>0</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="25"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
@@ -899,46 +902,46 @@
       <c r="Y6" s="11"/>
     </row>
     <row r="7" spans="1:25" ht="15.75">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="28">
         <v>0</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="29">
         <v>0</v>
       </c>
-      <c r="N7" s="32"/>
+      <c r="N7" s="30"/>
       <c r="P7" s="3" t="s">
         <v>5</v>
       </c>

--- a/Reports/RSO/Prokopevsk/Hot_water_MKD/Hot_water_MKD.xlsx
+++ b/Reports/RSO/Prokopevsk/Hot_water_MKD/Hot_water_MKD.xlsx
@@ -147,9 +147,6 @@
     <t>"=L$R-M$R"</t>
   </si>
   <si>
-    <t>$SUM_t1['summa12']</t>
-  </si>
-  <si>
     <t>$t1['tarif']</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>$SUM_t1['value45_D1']</t>
+  </si>
+  <si>
+    <t>$SUM_t1['summa1']</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -789,7 +789,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>34</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>1</v>
@@ -851,7 +851,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>34</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>39</v>
@@ -872,7 +872,7 @@
         <v>41</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M6" s="24">
         <v>0</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="7" spans="1:25" ht="15.75">
       <c r="A7" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>29</v>
@@ -915,7 +915,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>34</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="28" t="s">
         <v>39</v>
@@ -936,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M7" s="29">
         <v>0</v>
